--- a/data/Diccionario_SenecaféAlpes.xlsx
+++ b/data/Diccionario_SenecaféAlpes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\dell\Documents\Uniandes\Cursos_2025_20\IN\Laboratorios\Agrupación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/s_ramirez112_uniandes_edu_co/Documents/8 semestre/BI/BI_LAB_02/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CA8570-4269-4C98-8ADC-C1F83E5612BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{912237B1-D28C-43F6-A85F-65AB1CB388A1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{912237B1-D28C-43F6-A85F-65AB1CB388A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -554,18 +554,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0F48892-3FFD-4484-A042-98E6149BE8CF}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="76" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="165.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.54296875" customWidth="1"/>
+    <col min="2" max="2" width="165.7265625" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
@@ -581,7 +581,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -589,7 +589,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -597,7 +597,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -605,7 +605,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -613,7 +613,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -621,7 +621,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -629,7 +629,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -637,7 +637,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -645,7 +645,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -653,7 +653,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -661,7 +661,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -669,7 +669,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -677,7 +677,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -685,7 +685,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -693,7 +693,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -701,7 +701,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -709,7 +709,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -717,7 +717,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>

--- a/data/Diccionario_SenecaféAlpes.xlsx
+++ b/data/Diccionario_SenecaféAlpes.xlsx
@@ -554,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0F48892-3FFD-4484-A042-98E6149BE8CF}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="76" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="76" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -727,5 +727,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>